--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000"/>
   </bookViews>
   <sheets>
-    <sheet name="CSM_Login" sheetId="1" r:id="rId3"/>
-    <sheet name="CSMParam_login" sheetId="2" r:id="rId4"/>
-    <sheet name="SadsLogin" sheetId="3" r:id="rId5"/>
-    <sheet name="CSM_ChequeBookrequest" sheetId="4" r:id="rId6"/>
-    <sheet name="ChargeWaiverExecutionTracker" sheetId="5" r:id="rId7"/>
+    <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="CSMParam_login" sheetId="2" r:id="rId2"/>
+    <sheet name="SadsLogin" sheetId="3" r:id="rId3"/>
+    <sheet name="CSM_ChequeBookrequest" sheetId="4" r:id="rId4"/>
+    <sheet name="ChargeWaiverExecutionTracker" sheetId="5" r:id="rId5"/>
+    <sheet name="CSM_TRANSACTIONS" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Stage</t>
   </si>
@@ -226,15 +226,26 @@
   </si>
   <si>
     <t>DS01_TC_CW_041</t>
+  </si>
+  <si>
+    <t>TRX_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRS_029_01</t>
+  </si>
+  <si>
+    <t>TRS_029</t>
+  </si>
+  <si>
+    <t>KARTHIK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="$#,##0;[RED]-$#,##0"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00;[RED]-&quot;$&quot;#,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -288,23 +299,6 @@
     <font>
       <b/>
       <i/>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -313,10 +307,22 @@
     <font>
       <b/>
       <i/>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -385,6 +391,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -397,269 +404,65 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="7">
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="6"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Result" xfId="20"/>
-    <cellStyle name="Result2" xfId="21"/>
-    <cellStyle name="Heading" xfId="22"/>
-    <cellStyle name="Heading1" xfId="23"/>
-    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="24"/>
-    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="26"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="27"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="28"/>
-    <cellStyle name="Heading_20_1" xfId="29"/>
-    <cellStyle name="Heading1_20_1" xfId="30"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="31"/>
-    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="32"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="33"/>
-    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="34"/>
-    <cellStyle name="Result_20_1" xfId="35"/>
-    <cellStyle name="Result2_20_1" xfId="36"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="37"/>
-    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="38"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="39"/>
-    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="40"/>
+    <cellStyle name="Result" xfId="1"/>
+    <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -714,7 +517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -766,7 +569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -960,31 +763,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4445963f-b54b-4b6d-a6de-1623f3b034b6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.285714285714285" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.714285714285715" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.285714285714285" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.857142857142854" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.285714285714285" style="3"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,12 +804,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -1019,30 +822,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.587" bottom="4.587" header="4.3900999999999994" footer="4.3900999999999994"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.5869999999999997" bottom="4.5869999999999997" header="4.3900999999999994" footer="4.3900999999999994"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ae6a0fda-b241-4b58-a37d-1a2d05d2fead}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.857142857142854" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.714285714285715" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.857142857142854" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.142857142857146" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66.71428571428571" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.285714285714285" style="3"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1077,28 +880,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.587" bottom="4.587" header="4.3900999999999994" footer="4.3900999999999994"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.5869999999999997" bottom="4.5869999999999997" header="4.3900999999999994" footer="4.3900999999999994"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dca659e7-354e-4387-bf44-c3efd401ab5e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.285714285714285" style="3"/>
-    <col min="2" max="2" width="64.14285714285714" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="3"/>
+    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="57" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="18.285714285714285" style="3"/>
+    <col min="4" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.05">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.05">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1121,37 +922,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.587" bottom="4.587" header="4.3900999999999994" footer="4.3900999999999994"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.5869999999999997" bottom="4.5869999999999997" header="4.3900999999999994" footer="4.3900999999999994"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ff255bd-718e-49ac-8983-d794fdb9bc5c}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.144285714285715" defaultRowHeight="17.85"/>
+  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.285714285714285" style="7" customWidth="1"/>
-    <col min="2" max="2" width="56.42857142857143" style="7" customWidth="1"/>
-    <col min="3" max="3" width="49.57142857142857" style="7" customWidth="1"/>
-    <col min="4" max="4" width="43.714285714285715" style="7" customWidth="1"/>
-    <col min="5" max="5" width="52.714285714285715" style="7" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="51" style="7" customWidth="1"/>
-    <col min="7" max="7" width="36.42857142857143" style="7" customWidth="1"/>
-    <col min="8" max="8" width="44.714285714285715" style="7" customWidth="1"/>
-    <col min="9" max="9" width="43.57142857142857" style="7" customWidth="1"/>
-    <col min="10" max="10" width="35.42857142857143" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23.571428571428573" style="7" customWidth="1"/>
-    <col min="12" max="12" width="29.142857142857142" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="18.142857142857142" style="7"/>
+    <col min="7" max="7" width="36.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="18.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.05">
+    <row r="1" spans="1:1024" ht="15">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +988,7 @@
       </c>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:1024" ht="17.85">
+    <row r="2" spans="1:1024" ht="18.75">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -2219,7 +2020,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" ht="17.85">
+    <row r="3" spans="1:1024">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -3245,7 +3046,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" ht="17.85">
+    <row r="4" spans="1:1024">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -4272,33 +4073,33 @@
       <c r="AMJ4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.587" bottom="4.587" header="4.3900999999999994" footer="4.3900999999999994"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.5869999999999997" bottom="4.5869999999999997" header="4.3900999999999994" footer="4.3900999999999994"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18ee35e7-e54a-437b-807c-500bde51dabe}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.428571428571427" style="14" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="14" customWidth="1"/>
     <col min="2" max="2" width="87" style="14" customWidth="1"/>
     <col min="3" max="3" width="66" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.571428571428573" style="14" customWidth="1"/>
-    <col min="5" max="7" width="76.14285714285714" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="14" customWidth="1"/>
+    <col min="5" max="7" width="76.140625" style="14" customWidth="1"/>
     <col min="8" max="8" width="51" style="14" customWidth="1"/>
-    <col min="9" max="9" width="50.57142857142857" style="14" customWidth="1"/>
-    <col min="10" max="10" width="48.714285714285715" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="16.285714285714285" style="22"/>
+    <col min="9" max="9" width="50.5703125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="48.7109375" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="16.28515625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.05">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -4330,7 +4131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.05">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -4350,7 +4151,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="14.05">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -4370,7 +4171,7 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="1:10" ht="14.05">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -4390,7 +4191,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="14.05">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -4410,7 +4211,7 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" ht="14.05">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -4430,7 +4231,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="14.05">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -4450,7 +4251,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" ht="14.05">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -4470,7 +4271,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" ht="14.05">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -4492,7 +4293,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" ht="14.05">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -4512,7 +4313,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" ht="14.05">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -4532,7 +4333,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="14.05">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -4552,7 +4353,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" ht="14.05">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -4572,7 +4373,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" ht="14.05">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -4592,7 +4393,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" ht="14.05">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -4612,7 +4413,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10" ht="14.05">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -4632,7 +4433,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10" ht="14.05">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -4652,7 +4453,7 @@
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:10" ht="14.05">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -4672,7 +4473,7 @@
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" ht="14.05">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4684,7 +4485,7 @@
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" ht="14.05">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -4696,7 +4497,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" ht="14.05">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -4708,7 +4509,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" ht="14.05">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -4720,7 +4521,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:10" ht="14.05">
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -4732,7 +4533,7 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10" ht="14.05">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -4744,7 +4545,7 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10" ht="14.05">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -4756,7 +4557,7 @@
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10" ht="14.05">
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -4768,7 +4569,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:10" ht="14.05">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -4780,7 +4581,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="14.05">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -4792,7 +4593,7 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" ht="14.05">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -4804,7 +4605,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10" ht="14.05">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="18"/>
@@ -4816,7 +4617,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:10" ht="14.05">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="18"/>
@@ -4828,7 +4629,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10" ht="14.05">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="18"/>
@@ -4840,7 +4641,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10" ht="14.05">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="18"/>
@@ -4852,7 +4653,7 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" spans="1:10" ht="14.05">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="18"/>
@@ -4864,7 +4665,7 @@
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="1:10" ht="14.05">
+    <row r="35" spans="1:10" ht="15">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="18"/>
@@ -4876,7 +4677,7 @@
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" spans="1:10" ht="14.05">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="18"/>
@@ -4888,7 +4689,7 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="14.05">
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="18"/>
@@ -4900,7 +4701,7 @@
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" ht="14.05">
+    <row r="38" spans="1:10" ht="15">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="18"/>
@@ -4912,7 +4713,7 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
     </row>
-    <row r="39" spans="1:10" ht="14.05">
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -4924,7 +4725,7 @@
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="1:10" ht="14.05">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -4936,7 +4737,7 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:10" ht="14.05">
+    <row r="41" spans="1:10" ht="15">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -4948,7 +4749,7 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="1:10" ht="14.05">
+    <row r="42" spans="1:10" ht="15">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -4960,7 +4761,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="1:10" ht="14.05">
+    <row r="43" spans="1:10" ht="15">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -4972,7 +4773,7 @@
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
     </row>
-    <row r="44" spans="1:10" ht="14.05">
+    <row r="44" spans="1:10" ht="15">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="18"/>
@@ -4984,7 +4785,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
     </row>
-    <row r="45" spans="1:10" ht="14.05">
+    <row r="45" spans="1:10" ht="15">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="18"/>
@@ -4996,7 +4797,7 @@
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="14.05">
+    <row r="46" spans="1:10" ht="15">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="18"/>
@@ -5008,7 +4809,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" ht="14.05">
+    <row r="47" spans="1:10" ht="15">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="18"/>
@@ -5020,7 +4821,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
     </row>
-    <row r="48" spans="1:10" ht="14.05">
+    <row r="48" spans="1:10" ht="15">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="18"/>
@@ -5032,7 +4833,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
     </row>
-    <row r="49" spans="1:10" ht="14.05">
+    <row r="49" spans="1:10" ht="15">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="18"/>
@@ -5044,7 +4845,7 @@
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" spans="1:10" ht="14.05">
+    <row r="50" spans="1:10" ht="15">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="18"/>
@@ -5056,7 +4857,7 @@
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
     </row>
-    <row r="51" spans="1:10" ht="14.05">
+    <row r="51" spans="1:10" ht="15">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="18"/>
@@ -5068,7 +4869,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:10" ht="14.05">
+    <row r="52" spans="1:10" ht="15">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="18"/>
@@ -5080,7 +4881,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" spans="1:10" ht="14.05">
+    <row r="53" spans="1:10" ht="15">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -5092,7 +4893,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
     </row>
-    <row r="54" spans="1:10" ht="14.05">
+    <row r="54" spans="1:10" ht="15">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -5110,11 +4911,54 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7874" right="0.7874" top="1.0835000000000001" bottom="1.0835000000000001" header="0.9445000000000001" footer="0.9445000000000001"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0835000000000001" bottom="1.0835000000000001" header="0.94450000000000012" footer="0.94450000000000012"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
   <si>
     <t>Stage</t>
   </si>
@@ -228,16 +228,163 @@
     <t>DS01_TC_CW_041</t>
   </si>
   <si>
-    <t>TRX_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TRS_029_01</t>
-  </si>
-  <si>
-    <t>TRS_029</t>
-  </si>
-  <si>
-    <t>KARTHIK</t>
+    <t>TRXType_D1</t>
+  </si>
+  <si>
+    <t>BranchCode_D1</t>
+  </si>
+  <si>
+    <t>CurrencyCode_D1</t>
+  </si>
+  <si>
+    <t>GLCode_D1</t>
+  </si>
+  <si>
+    <t>CIFCode_D1</t>
+  </si>
+  <si>
+    <t>SerialNo_D1</t>
+  </si>
+  <si>
+    <t>TRXType_D2</t>
+  </si>
+  <si>
+    <t>BranchCode_D2</t>
+  </si>
+  <si>
+    <t>CurrencyCode_D2</t>
+  </si>
+  <si>
+    <t>GLCode_D2</t>
+  </si>
+  <si>
+    <t>CIFCode_D2</t>
+  </si>
+  <si>
+    <t>SerialNo_D2</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>User_Id</t>
+  </si>
+  <si>
+    <t>DepositLimit</t>
+  </si>
+  <si>
+    <t>TRXNo</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>WithdrawLimit</t>
+  </si>
+  <si>
+    <t>AllTRX</t>
+  </si>
+  <si>
+    <t>TRS_121</t>
+  </si>
+  <si>
+    <t>TRS_121_D1</t>
+  </si>
+  <si>
+    <t>TRS_116</t>
+  </si>
+  <si>
+    <t>TRS_116_D1</t>
+  </si>
+  <si>
+    <t>Ecosector-limit</t>
+  </si>
+  <si>
+    <t>TRS_117_D1</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>96145</t>
+  </si>
+  <si>
+    <t>993579</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>TRS_117</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>TRS_118_D1</t>
+  </si>
+  <si>
+    <t>TRS_118</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>TRS_119</t>
+  </si>
+  <si>
+    <t>TRS_119_D1</t>
+  </si>
+  <si>
+    <t>TRS_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRS_070_D1</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>07/06/2023</t>
+  </si>
+  <si>
+    <t>5916</t>
+  </si>
+  <si>
+    <t>993567</t>
+  </si>
+  <si>
+    <t>TRS_069</t>
+  </si>
+  <si>
+    <t>TRS_069_D1</t>
+  </si>
+  <si>
+    <t>TRS_073_D1</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>TRS_073</t>
+  </si>
+  <si>
+    <t>8051</t>
   </si>
 </sst>
 </file>
@@ -314,19 +461,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +516,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -406,6 +571,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -420,7 +626,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -448,9 +654,33 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -763,7 +993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -773,18 +1003,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="false"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -809,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -837,12 +1067,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="false"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -893,10 +1123,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="3"/>
-    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" style="3" width="18.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -932,24 +1162,24 @@
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="51" style="7" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="18.140625" style="7"/>
+    <col min="1" max="1" customWidth="true" style="7" width="33.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="7" width="56.42578125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="7" width="49.5703125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="7" width="43.7109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="7" width="52.7109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="7" width="51.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="7" width="36.42578125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="7" width="44.7109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="7" width="43.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="7" width="35.42578125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="7" width="23.5703125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="7" width="29.140625" collapsed="false"/>
+    <col min="13" max="16384" style="7" width="18.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="15">
@@ -4088,15 +4318,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="87" style="14" customWidth="1"/>
-    <col min="3" max="3" width="66" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="14" customWidth="1"/>
-    <col min="5" max="7" width="76.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="51" style="14" customWidth="1"/>
-    <col min="9" max="9" width="50.5703125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="48.7109375" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="16.28515625" style="22"/>
+    <col min="1" max="1" customWidth="true" style="14" width="17.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="14" width="87.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="14" width="66.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="14" width="16.5703125" collapsed="false"/>
+    <col min="5" max="7" customWidth="true" style="14" width="76.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="14" width="51.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="14" width="50.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="14" width="48.7109375" collapsed="false"/>
+    <col min="11" max="16384" style="22" width="16.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -4922,40 +5152,1549 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="18.85546875" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="18" max="18" width="7.57421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:23" ht="15.75">
+      <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="D1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
+      <c r="F1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1" s="29"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="30">
+        <v>123</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30">
+        <v>840</v>
+      </c>
+      <c r="F3" s="30">
+        <v>96145</v>
+      </c>
+      <c r="G3" s="30">
+        <v>993579</v>
+      </c>
+      <c r="H3" s="30">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30">
+        <v>100</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="30">
+        <v>300</v>
+      </c>
+      <c r="U3" s="31"/>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="U4" s="30"/>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="30"/>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="U6" s="30"/>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+    </row>
+    <row r="33" spans="3:21">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+    </row>
+    <row r="34" spans="3:21">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+    </row>
+    <row r="35" spans="3:21">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+    </row>
+    <row r="36" spans="3:21">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+    </row>
+    <row r="37" spans="3:21">
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+    </row>
+    <row r="38" spans="3:21">
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+    </row>
+    <row r="39" spans="3:21">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+    </row>
+    <row r="40" spans="3:21">
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+    </row>
+    <row r="41" spans="3:21">
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+    </row>
+    <row r="42" spans="3:21">
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+    </row>
+    <row r="43" spans="3:21">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+    </row>
+    <row r="44" spans="3:21">
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+    </row>
+    <row r="45" spans="3:21">
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+    </row>
+    <row r="46" spans="3:21">
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+    </row>
+    <row r="47" spans="3:21">
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+    </row>
+    <row r="48" spans="3:21">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+    </row>
+    <row r="49" spans="3:21">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+    </row>
+    <row r="50" spans="3:21">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+    </row>
+    <row r="51" spans="3:21">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+    </row>
+    <row r="52" spans="3:21">
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+    </row>
+    <row r="53" spans="3:21">
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+    </row>
+    <row r="54" spans="3:21">
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+    </row>
+    <row r="55" spans="3:21">
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+    </row>
+    <row r="56" spans="3:21">
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+    </row>
+    <row r="57" spans="3:21">
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
@@ -14,12 +14,12 @@
     <sheet name="ChargeWaiverExecutionTracker" sheetId="5" r:id="rId5"/>
     <sheet name="CSM_TRANSACTIONS" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="157">
   <si>
     <t>Stage</t>
   </si>
@@ -246,9 +246,6 @@
     <t>SerialNo_D1</t>
   </si>
   <si>
-    <t>TRXType_D2</t>
-  </si>
-  <si>
     <t>BranchCode_D2</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>TRS_070</t>
   </si>
   <si>
-    <t xml:space="preserve"> TRS_070_D1</t>
-  </si>
-  <si>
     <t>154</t>
   </si>
   <si>
@@ -384,7 +378,118 @@
     <t>TRS_073</t>
   </si>
   <si>
-    <t>8051</t>
+    <t>TRS_070_D1</t>
+  </si>
+  <si>
+    <t>96138</t>
+  </si>
+  <si>
+    <t>993563</t>
+  </si>
+  <si>
+    <t>TRS_072</t>
+  </si>
+  <si>
+    <t>TRS_072_D1</t>
+  </si>
+  <si>
+    <t>TRS_071</t>
+  </si>
+  <si>
+    <t>TRS_071_D1</t>
+  </si>
+  <si>
+    <t>993569</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>TRS_170</t>
+  </si>
+  <si>
+    <t>TRS_170_D1</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>95916</t>
+  </si>
+  <si>
+    <t>993558</t>
+  </si>
+  <si>
+    <t>210101</t>
+  </si>
+  <si>
+    <t>01179</t>
+  </si>
+  <si>
+    <t>TRS_171</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>13/06/2023</t>
+  </si>
+  <si>
+    <t>TRS_171_D1</t>
+  </si>
+  <si>
+    <t>TRS_171_D2</t>
+  </si>
+  <si>
+    <t>TRS_034</t>
+  </si>
+  <si>
+    <t>TRS_034_D1</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Foreign_Currency_D1</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>9632</t>
+  </si>
+  <si>
+    <t>993602</t>
+  </si>
+  <si>
+    <t>8456</t>
+  </si>
+  <si>
+    <t>TRS_033</t>
+  </si>
+  <si>
+    <t>TRS_033_D1</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>6006</t>
+  </si>
+  <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>TRS_172</t>
+  </si>
+  <si>
+    <t>TRS_172_D1</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>15/06/2023</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1098,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1009,12 +1114,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="false"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" width="43.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1067,12 +1172,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="false"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1123,10 +1228,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="18.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" width="18.28515625" style="3"/>
+    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1167,19 +1272,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="33.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="7" width="56.42578125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="7" width="49.5703125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="7" width="43.7109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="7" width="52.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="7" width="51.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="7" width="36.42578125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="7" width="44.7109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="7" width="43.5703125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="7" width="35.42578125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="23.5703125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="7" width="29.140625" collapsed="false"/>
-    <col min="13" max="16384" style="7" width="18.140625" collapsed="false"/>
+    <col min="1" max="1" width="33.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="51" style="7" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="18.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="15">
@@ -4318,15 +4423,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="14" width="17.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="14" width="87.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="14" width="66.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="14" width="16.5703125" collapsed="false"/>
-    <col min="5" max="7" customWidth="true" style="14" width="76.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="14" width="51.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="14" width="50.5703125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="14" width="48.7109375" collapsed="false"/>
-    <col min="11" max="16384" style="22" width="16.28515625" collapsed="false"/>
+    <col min="1" max="1" width="17.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="87" style="14" customWidth="1"/>
+    <col min="3" max="3" width="66" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="14" customWidth="1"/>
+    <col min="5" max="7" width="76.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="51" style="14" customWidth="1"/>
+    <col min="9" max="9" width="50.5703125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="48.7109375" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="16.28515625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -5155,17 +5260,16 @@
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="18.85546875" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="18" max="18" width="7.57421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75">
@@ -5194,73 +5298,73 @@
         <v>74</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="26" t="s">
-        <v>87</v>
-      </c>
       <c r="V1" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>89</v>
-      </c>
       <c r="C2" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
@@ -5269,17 +5373,17 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R2" s="30"/>
       <c r="S2" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
@@ -5289,13 +5393,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="30">
-        <v>123</v>
+      <c r="C3" s="31" t="s">
+        <v>117</v>
       </c>
       <c r="D3" s="30">
         <v>1</v>
@@ -5327,7 +5431,7 @@
       <c r="Q3" s="30"/>
       <c r="R3" s="31"/>
       <c r="S3" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T3" s="30">
         <v>300</v>
@@ -5339,28 +5443,28 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="F4" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="G4" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="H4" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
@@ -5369,7 +5473,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P4" s="31" t="s">
         <v>6</v>
@@ -5377,10 +5481,10 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T4" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U4" s="30"/>
       <c r="V4">
@@ -5389,28 +5493,28 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="G5" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="H5" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
@@ -5419,20 +5523,18 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="31"/>
-      <c r="R5" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="R5" s="30"/>
       <c r="S5" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U5" s="30"/>
       <c r="V5">
@@ -5441,28 +5543,28 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>109</v>
-      </c>
       <c r="C6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="F6" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="G6" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="H6" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
@@ -5471,7 +5573,7 @@
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P6" s="31" t="s">
         <v>6</v>
@@ -5479,10 +5581,10 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
       <c r="S6" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U6" s="30"/>
       <c r="V6">
@@ -5491,47 +5593,47 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>112</v>
-      </c>
       <c r="D7" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="F7" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="G7" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="H7" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>96</v>
-      </c>
       <c r="L7" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>6</v>
@@ -5539,35 +5641,35 @@
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="F8" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="G8" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="H8" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -5576,7 +5678,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P8" s="31" t="s">
         <v>6</v>
@@ -5584,35 +5686,35 @@
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
       <c r="S8" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>97</v>
-      </c>
       <c r="G9" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -5621,7 +5723,7 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>6</v>
@@ -5629,202 +5731,434 @@
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U9" s="30"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
+      <c r="O10" s="31" t="s">
+        <v>106</v>
+      </c>
       <c r="P10" s="31" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="30"/>
       <c r="R10" s="30"/>
       <c r="S10" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="T10" s="30"/>
+        <v>111</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>102</v>
+      </c>
       <c r="U10" s="30"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="A11" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="O11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
       <c r="S11" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="T11" s="30"/>
+        <v>137</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>102</v>
+      </c>
       <c r="U11" s="30"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="A12" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="J12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
       <c r="S12" s="31" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="A13" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="J13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
+      <c r="S13" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="A14" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="J14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="N14" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
+      <c r="S14" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="A15" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
+      <c r="J15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
+      <c r="S15" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="T15" s="30"/>
       <c r="U15" s="30"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="A16" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="J16" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
+      <c r="S16" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="A17" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="J17" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
+      <c r="S17" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
     </row>

--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="172">
   <si>
     <t>Stage</t>
   </si>
@@ -490,6 +490,51 @@
   </si>
   <si>
     <t>15/06/2023</t>
+  </si>
+  <si>
+    <t>TRS_173</t>
+  </si>
+  <si>
+    <t>TRS_174</t>
+  </si>
+  <si>
+    <t>TRS_175</t>
+  </si>
+  <si>
+    <t>TRS_173_D1</t>
+  </si>
+  <si>
+    <t>TRS_174_D1</t>
+  </si>
+  <si>
+    <t>TRS_175_D1</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>14523</t>
+  </si>
+  <si>
+    <t>993640</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>005916</t>
+  </si>
+  <si>
+    <t>014523</t>
+  </si>
+  <si>
+    <t>8348</t>
+  </si>
+  <si>
+    <t>8390</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1143,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1114,12 +1159,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1172,12 +1217,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1228,10 +1273,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="3"/>
-    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" style="3" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1272,19 +1317,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="51" style="7" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="18.140625" style="7"/>
+    <col min="1" max="1" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="56.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="49.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="43.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="7" width="52.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="7" width="51.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="7" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="44.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="43.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="7" width="35.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="29.140625" collapsed="true"/>
+    <col min="13" max="16384" style="7" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="15">
@@ -4423,15 +4468,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="87" style="14" customWidth="1"/>
-    <col min="3" max="3" width="66" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="14" customWidth="1"/>
-    <col min="5" max="7" width="76.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="51" style="14" customWidth="1"/>
-    <col min="9" max="9" width="50.5703125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="48.7109375" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="16.28515625" style="22"/>
+    <col min="1" max="1" customWidth="true" style="14" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="87.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="66.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="14" width="16.5703125" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="14" width="76.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="14" width="51.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="14" width="50.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="14" width="48.7109375" collapsed="true"/>
+    <col min="11" max="16384" style="22" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -5260,16 +5305,17 @@
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.57421875" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75">
@@ -5429,7 +5475,9 @@
         <v>6</v>
       </c>
       <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
+      <c r="R3" s="31" t="s">
+        <v>171</v>
+      </c>
       <c r="S3" s="31" t="s">
         <v>111</v>
       </c>
@@ -5529,7 +5577,9 @@
         <v>6</v>
       </c>
       <c r="Q5" s="31"/>
-      <c r="R5" s="30"/>
+      <c r="R5" s="30" t="s">
+        <v>170</v>
+      </c>
       <c r="S5" s="31" t="s">
         <v>111</v>
       </c>
@@ -5876,9 +5926,7 @@
       <c r="O12" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="31" t="s">
-        <v>6</v>
-      </c>
+      <c r="P12" s="31"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
       <c r="S12" s="31" t="s">
@@ -5931,9 +5979,7 @@
       <c r="O13" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="P13" s="31" t="s">
-        <v>6</v>
-      </c>
+      <c r="P13" s="31"/>
       <c r="Q13" s="30"/>
       <c r="R13" s="30"/>
       <c r="S13" s="31" t="s">
@@ -5986,9 +6032,7 @@
       <c r="O14" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="31" t="s">
-        <v>6</v>
-      </c>
+      <c r="P14" s="31"/>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="31" t="s">
@@ -6041,9 +6085,7 @@
       <c r="O15" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="P15" s="31" t="s">
-        <v>6</v>
-      </c>
+      <c r="P15" s="31"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
       <c r="S15" s="31" t="s">
@@ -6096,9 +6138,7 @@
       <c r="O16" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="31" t="s">
-        <v>6</v>
-      </c>
+      <c r="P16" s="31"/>
       <c r="Q16" s="30"/>
       <c r="R16" s="30"/>
       <c r="S16" s="31" t="s">
@@ -6151,9 +6191,7 @@
       <c r="O17" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="31" t="s">
-        <v>6</v>
-      </c>
+      <c r="P17" s="31"/>
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
       <c r="S17" s="31" t="s">
@@ -6163,71 +6201,161 @@
       <c r="U17" s="30"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="A18" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
+      <c r="J18" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="31"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
+      <c r="S18" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
+      <c r="J19" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="31"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
+      <c r="S19" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="T19" s="30"/>
       <c r="U19" s="30"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="A20" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
+      <c r="J20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="31"/>
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
+      <c r="S20" s="31" t="s">
+        <v>156</v>
+      </c>
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
     </row>

--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="CSM_ChequeBookrequest" sheetId="4" r:id="rId4"/>
     <sheet name="ChargeWaiverExecutionTracker" sheetId="5" r:id="rId5"/>
     <sheet name="CSM_TRANSACTIONS" sheetId="6" r:id="rId6"/>
+    <sheet name="CSM_TRANSACTIONONSTAFFACC" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="199">
   <si>
     <t>Stage</t>
   </si>
@@ -456,9 +457,6 @@
     <t>586</t>
   </si>
   <si>
-    <t>9632</t>
-  </si>
-  <si>
     <t>993602</t>
   </si>
   <si>
@@ -525,16 +523,100 @@
     <t>867</t>
   </si>
   <si>
-    <t>005916</t>
-  </si>
-  <si>
-    <t>014523</t>
-  </si>
-  <si>
-    <t>8348</t>
-  </si>
-  <si>
-    <t>8390</t>
+    <t>TRS_032</t>
+  </si>
+  <si>
+    <t>TRS_031</t>
+  </si>
+  <si>
+    <t>TRS_030</t>
+  </si>
+  <si>
+    <t>TRS_029</t>
+  </si>
+  <si>
+    <t>TRS_029_D1</t>
+  </si>
+  <si>
+    <t>TRS_030_D1</t>
+  </si>
+  <si>
+    <t>TRS_031_D1</t>
+  </si>
+  <si>
+    <t>TRS_032_D1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>Acc_Branch_D1</t>
+  </si>
+  <si>
+    <t>Acc_Gl_D1</t>
+  </si>
+  <si>
+    <t>Acc_Cif_D1</t>
+  </si>
+  <si>
+    <t>Acc_sl_D1</t>
+  </si>
+  <si>
+    <t>Acc_Amount_D1</t>
+  </si>
+  <si>
+    <t>Acc_Msg1_D1</t>
+  </si>
+  <si>
+    <t>Acc_Msg2_D1</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>008456</t>
+  </si>
+  <si>
+    <t>00993602</t>
+  </si>
+  <si>
+    <t>Acc_Branch_D2</t>
+  </si>
+  <si>
+    <t>Acc_Gl_D2</t>
+  </si>
+  <si>
+    <t>Acc_Cif_D2</t>
+  </si>
+  <si>
+    <t>Acc_sl_D2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TSA_149</t>
+  </si>
+  <si>
+    <t>TSA_149_01</t>
+  </si>
+  <si>
+    <t>Code_D1</t>
+  </si>
+  <si>
+    <t>Description_D1</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>GL_D1</t>
+  </si>
+  <si>
+    <t>CIF_D1</t>
   </si>
 </sst>
 </file>
@@ -544,7 +626,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -622,8 +704,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,6 +769,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -776,7 +876,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -820,7 +920,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,6 +930,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1143,7 +1250,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1159,12 +1266,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="43.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1217,12 +1324,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1273,10 +1380,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" style="3"/>
+    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1312,24 +1419,24 @@
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="56.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="49.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="7" width="43.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="7" width="52.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="7" width="51.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="7" width="36.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="7" width="44.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="7" width="43.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="7" width="35.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="7" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="7" width="29.140625" collapsed="true"/>
-    <col min="13" max="16384" style="7" width="18.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="51" style="7" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="18.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="15">
@@ -4463,20 +4570,20 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="14" width="17.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="14" width="87.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="66.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="14" width="16.5703125" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" style="14" width="76.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="14" width="51.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="14" width="50.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="14" width="48.7109375" collapsed="true"/>
-    <col min="11" max="16384" style="22" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="87" style="14" customWidth="1"/>
+    <col min="3" max="3" width="66" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="14" customWidth="1"/>
+    <col min="5" max="7" width="76.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="51" style="14" customWidth="1"/>
+    <col min="9" max="9" width="50.5703125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="48.7109375" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="16.28515625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -5302,30 +5409,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.57421875" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:36" ht="15.75">
+      <c r="A1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -5382,1784 +5491,2007 @@
       <c r="U1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="29"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="35" t="s">
+      <c r="W1" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="X1" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD1" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE1" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF1" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG1" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31" t="s">
+      <c r="R2" s="29"/>
+      <c r="S2" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
       <c r="V2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="35" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>1</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>840</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>96145</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>993579</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>0</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29">
         <v>100</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="S3" s="31" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="30">
+      <c r="T3" s="29">
         <v>300</v>
       </c>
-      <c r="U3" s="31"/>
+      <c r="U3" s="30"/>
       <c r="V3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:36">
+      <c r="A4" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31" t="s">
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="U4" s="30"/>
+      <c r="U4" s="29"/>
       <c r="V4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:36">
+      <c r="A5" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="S5" s="31" t="s">
+      <c r="Q5" s="30"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="31" t="s">
+      <c r="T5" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="U5" s="30"/>
+      <c r="U5" s="29"/>
       <c r="V5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:36">
+      <c r="A6" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="P6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="31" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T6" s="31" t="s">
+      <c r="T6" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="U6" s="30"/>
+      <c r="U6" s="29"/>
       <c r="V6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:36">
+      <c r="A7" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="31" t="s">
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="35" t="s">
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="31" t="s">
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="35" t="s">
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31" t="s">
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="U9" s="30"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="35" t="s">
+      <c r="U9" s="29"/>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31" t="s">
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="T10" s="31" t="s">
+      <c r="T10" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="U10" s="30"/>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="35" t="s">
+      <c r="U10" s="29"/>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31" t="s">
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="31" t="s">
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="U11" s="30"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="35" t="s">
+      <c r="U11" s="29"/>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31" t="s">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="35" t="s">
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="29"/>
+      <c r="J13" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31" t="s">
+      <c r="P13" s="30"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="35" t="s">
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31" t="s">
+      <c r="I14" s="29"/>
+      <c r="J14" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31" t="s">
+      <c r="P14" s="30"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="35" t="s">
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="N15" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="G21" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31" t="s">
+      <c r="I21" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="N15" s="31" t="s">
+      <c r="K21" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="N21" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O21" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="35" t="s">
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="F22" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="31" t="s">
+      <c r="H22" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="31" t="s">
+      <c r="I22" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="N18" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="M19" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="N19" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="M20" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="N20" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="30"/>
+      <c r="O22" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>175</v>
+      </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="I23" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>98</v>
+      </c>
       <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>5916</v>
+      </c>
+      <c r="Y23">
+        <v>993567</v>
+      </c>
+      <c r="Z23">
+        <v>50</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC23" s="39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>95916</v>
+      </c>
+      <c r="Y24">
+        <v>993558</v>
+      </c>
+      <c r="Z24">
+        <v>50</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC24" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>96145</v>
+      </c>
+      <c r="AF24">
+        <v>993579</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
     </row>
     <row r="34" spans="3:21">
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
     </row>
     <row r="35" spans="3:21">
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
     </row>
     <row r="36" spans="3:21">
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
     </row>
     <row r="38" spans="3:21">
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
     </row>
     <row r="39" spans="3:21">
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
     </row>
     <row r="41" spans="3:21">
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
     </row>
     <row r="42" spans="3:21">
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
     </row>
     <row r="43" spans="3:21">
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
     </row>
     <row r="44" spans="3:21">
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
     </row>
     <row r="45" spans="3:21">
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
     </row>
     <row r="46" spans="3:21">
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
     </row>
     <row r="47" spans="3:21">
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
     </row>
     <row r="48" spans="3:21">
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
     </row>
     <row r="49" spans="3:21">
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
     </row>
     <row r="50" spans="3:21">
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
     </row>
     <row r="51" spans="3:21">
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
     </row>
     <row r="52" spans="3:21">
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
     </row>
     <row r="53" spans="3:21">
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
     </row>
     <row r="54" spans="3:21">
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
     </row>
     <row r="55" spans="3:21">
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
     </row>
     <row r="56" spans="3:21">
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-    </row>
-    <row r="57" spans="3:21">
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L16:N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="37" customFormat="1" ht="15.75">
+      <c r="A1" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2">
+        <v>255</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>95916</v>
+      </c>
+      <c r="G2">
+        <v>993558</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="211">
   <si>
     <t>Stage</t>
   </si>
@@ -82,15 +82,9 @@
     <t>TODAY DATE</t>
   </si>
   <si>
-    <t>CODE</t>
-  </si>
-  <si>
     <t>CHB_115</t>
   </si>
   <si>
-    <t>CHB_115_01</t>
-  </si>
-  <si>
     <t>Sequence</t>
   </si>
   <si>
@@ -247,6 +241,9 @@
     <t>SerialNo_D1</t>
   </si>
   <si>
+    <t>Foreign_Currency_D1</t>
+  </si>
+  <si>
     <t>BranchCode_D2</t>
   </si>
   <si>
@@ -283,105 +280,138 @@
     <t>AllTRX</t>
   </si>
   <si>
+    <t>Ecosector-limit</t>
+  </si>
+  <si>
+    <t>Acc_Branch_D1</t>
+  </si>
+  <si>
+    <t>Acc_Gl_D1</t>
+  </si>
+  <si>
+    <t>Acc_Cif_D1</t>
+  </si>
+  <si>
+    <t>Acc_Amount_D1</t>
+  </si>
+  <si>
+    <t>Acc_sl_D1</t>
+  </si>
+  <si>
+    <t>Acc_Msg1_D1</t>
+  </si>
+  <si>
+    <t>Acc_Msg2_D1</t>
+  </si>
+  <si>
+    <t>Acc_Branch_D2</t>
+  </si>
+  <si>
+    <t>Acc_Gl_D2</t>
+  </si>
+  <si>
+    <t>Acc_Cif_D2</t>
+  </si>
+  <si>
+    <t>Acc_sl_D2</t>
+  </si>
+  <si>
     <t>TRS_121</t>
   </si>
   <si>
     <t>TRS_121_D1</t>
   </si>
   <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>96145</t>
+  </si>
+  <si>
+    <t>993579</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>07/06/2023</t>
+  </si>
+  <si>
     <t>TRS_116</t>
   </si>
   <si>
     <t>TRS_116_D1</t>
   </si>
   <si>
-    <t>Ecosector-limit</t>
+    <t>977</t>
+  </si>
+  <si>
+    <t>TRS_117</t>
   </si>
   <si>
     <t>TRS_117_D1</t>
   </si>
   <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>TRS_118</t>
+  </si>
+  <si>
+    <t>TRS_118_D1</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>TRS_119</t>
+  </si>
+  <si>
+    <t>TRS_119_D1</t>
+  </si>
+  <si>
+    <t>TRS_070</t>
+  </si>
+  <si>
+    <t>TRS_070_D1</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>5916</t>
+  </si>
+  <si>
+    <t>993567</t>
+  </si>
+  <si>
+    <t>TRS_069</t>
+  </si>
+  <si>
+    <t>TRS_069_D1</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
-    <t>96145</t>
-  </si>
-  <si>
-    <t>993579</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>TRS_117</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>TRS_118_D1</t>
-  </si>
-  <si>
-    <t>TRS_118</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>TRS_119</t>
-  </si>
-  <si>
-    <t>TRS_119_D1</t>
-  </si>
-  <si>
-    <t>TRS_070</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>07/06/2023</t>
-  </si>
-  <si>
-    <t>5916</t>
-  </si>
-  <si>
-    <t>993567</t>
-  </si>
-  <si>
-    <t>TRS_069</t>
-  </si>
-  <si>
-    <t>TRS_069_D1</t>
+    <t>TRS_073</t>
   </si>
   <si>
     <t>TRS_073_D1</t>
   </si>
   <si>
-    <t>977</t>
-  </si>
-  <si>
-    <t>TRS_073</t>
-  </si>
-  <si>
-    <t>TRS_070_D1</t>
-  </si>
-  <si>
     <t>96138</t>
   </si>
   <si>
@@ -400,12 +430,12 @@
     <t>TRS_071_D1</t>
   </si>
   <si>
-    <t>993569</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
+    <t>13/06/2023</t>
+  </si>
+  <si>
     <t>TRS_170</t>
   </si>
   <si>
@@ -430,15 +460,12 @@
     <t>TRS_171</t>
   </si>
   <si>
+    <t>TRS_171_D1</t>
+  </si>
+  <si>
     <t>178</t>
   </si>
   <si>
-    <t>13/06/2023</t>
-  </si>
-  <si>
-    <t>TRS_171_D1</t>
-  </si>
-  <si>
     <t>TRS_171_D2</t>
   </si>
   <si>
@@ -451,18 +478,15 @@
     <t>40</t>
   </si>
   <si>
-    <t>Foreign_Currency_D1</t>
-  </si>
-  <si>
     <t>586</t>
   </si>
   <si>
+    <t>8456</t>
+  </si>
+  <si>
     <t>993602</t>
   </si>
   <si>
-    <t>8456</t>
-  </si>
-  <si>
     <t>TRS_033</t>
   </si>
   <si>
@@ -493,130 +517,142 @@
     <t>TRS_173</t>
   </si>
   <si>
+    <t>TRS_173_D1</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>14523</t>
+  </si>
+  <si>
+    <t>993640</t>
+  </si>
+  <si>
     <t>TRS_174</t>
   </si>
   <si>
+    <t>TRS_174_D1</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
     <t>TRS_175</t>
   </si>
   <si>
-    <t>TRS_173_D1</t>
-  </si>
-  <si>
-    <t>TRS_174_D1</t>
-  </si>
-  <si>
     <t>TRS_175_D1</t>
   </si>
   <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>14523</t>
-  </si>
-  <si>
-    <t>993640</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
     <t>867</t>
   </si>
   <si>
+    <t>TRS_031</t>
+  </si>
+  <si>
+    <t>TRS_031_D1</t>
+  </si>
+  <si>
+    <t>TRS_030</t>
+  </si>
+  <si>
+    <t>TRS_030_D1</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>TRS_029</t>
+  </si>
+  <si>
+    <t>TRS_029_D1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>TRS_032</t>
   </si>
   <si>
-    <t>TRS_031</t>
-  </si>
-  <si>
-    <t>TRS_030</t>
-  </si>
-  <si>
-    <t>TRS_029</t>
-  </si>
-  <si>
-    <t>TRS_029_D1</t>
-  </si>
-  <si>
-    <t>TRS_030_D1</t>
-  </si>
-  <si>
-    <t>TRS_031_D1</t>
-  </si>
-  <si>
     <t>TRS_032_D1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>Acc_Branch_D1</t>
-  </si>
-  <si>
-    <t>Acc_Gl_D1</t>
-  </si>
-  <si>
-    <t>Acc_Cif_D1</t>
-  </si>
-  <si>
-    <t>Acc_sl_D1</t>
-  </si>
-  <si>
-    <t>Acc_Amount_D1</t>
-  </si>
-  <si>
-    <t>Acc_Msg1_D1</t>
-  </si>
-  <si>
-    <t>Acc_Msg2_D1</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>008456</t>
   </si>
   <si>
     <t>00993602</t>
   </si>
   <si>
-    <t>Acc_Branch_D2</t>
-  </si>
-  <si>
-    <t>Acc_Gl_D2</t>
-  </si>
-  <si>
-    <t>Acc_Cif_D2</t>
-  </si>
-  <si>
-    <t>Acc_sl_D2</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>Code_D1</t>
+  </si>
+  <si>
+    <t>Description_D1</t>
+  </si>
+  <si>
+    <t>GL_D1</t>
+  </si>
+  <si>
+    <t>CIF_D1</t>
   </si>
   <si>
     <t>TSA_149</t>
   </si>
   <si>
-    <t>TSA_149_01</t>
-  </si>
-  <si>
-    <t>Code_D1</t>
-  </si>
-  <si>
-    <t>Description_D1</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>GL_D1</t>
-  </si>
-  <si>
-    <t>CIF_D1</t>
+    <t>TSA_149_D1</t>
+  </si>
+  <si>
+    <t>TSA_150</t>
+  </si>
+  <si>
+    <t>TSA_151</t>
+  </si>
+  <si>
+    <t>TSA_150_D1</t>
+  </si>
+  <si>
+    <t>TSA_151_D1</t>
+  </si>
+  <si>
+    <t>CHB_115_D1</t>
+  </si>
+  <si>
+    <t>CODE_D1</t>
+  </si>
+  <si>
+    <t>Reason_D1</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>6842</t>
+  </si>
+  <si>
+    <t>993649</t>
+  </si>
+  <si>
+    <t>Teller_Branch</t>
+  </si>
+  <si>
+    <t>TellerAc_Currency</t>
+  </si>
+  <si>
+    <t>TellerAc_GL</t>
+  </si>
+  <si>
+    <t>TellerAc_CIF</t>
+  </si>
+  <si>
+    <t>TellerAc_serial</t>
+  </si>
+  <si>
+    <t>8568</t>
   </si>
 </sst>
 </file>
@@ -626,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -661,12 +697,6 @@
       <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF0080FF"/>
-      <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
@@ -711,7 +741,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,8 +814,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -862,48 +898,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,25 +962,26 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1250,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1266,12 +1310,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="false"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1324,12 +1368,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="false"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1380,10 +1424,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="3"/>
-    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" style="3" width="18.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1416,71 +1460,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="51" style="7" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="18.140625" style="7"/>
+    <col min="1" max="1" customWidth="true" style="5" width="18.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="5" width="23.28515625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="5" width="49.5703125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="43.7109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="5" width="52.7109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="5" width="51.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="5" width="36.42578125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="5" width="44.7109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="5" width="43.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="5" width="35.42578125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="5" width="23.5703125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="5" width="29.140625" collapsed="false"/>
+    <col min="13" max="16384" style="5" width="18.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1024" ht="18.75">
+      <c r="A2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:1024" ht="18.75">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
+      <c r="B2" s="35" t="s">
+        <v>199</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -1493,7 +1539,9 @@
       <c r="K2">
         <v>987</v>
       </c>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>202</v>
+      </c>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -2508,8 +2556,8 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024">
-      <c r="A3"/>
-      <c r="B3"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -3534,8 +3582,8 @@
       <c r="AMJ3"/>
     </row>
     <row r="4" spans="1:1024">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -4559,9 +4607,56 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
+    <row r="5" spans="1:1024">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+    </row>
+    <row r="6" spans="1:1024">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+    </row>
+    <row r="7" spans="1:1024">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+    </row>
+    <row r="8" spans="1:1024">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+    </row>
+    <row r="9" spans="1:1024">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="1:1024">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+    </row>
+    <row r="11" spans="1:1024">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" spans="1:1024">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+    </row>
+    <row r="13" spans="1:1024">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:1024">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+    </row>
+    <row r="15" spans="1:1024">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="33"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="4.5869999999999997" bottom="4.5869999999999997" header="4.3900999999999994" footer="4.3900999999999994"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4575,822 +4670,822 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="87" style="14" customWidth="1"/>
-    <col min="3" max="3" width="66" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="14" customWidth="1"/>
-    <col min="5" max="7" width="76.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="51" style="14" customWidth="1"/>
-    <col min="9" max="9" width="50.5703125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="48.7109375" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="16.28515625" style="22"/>
+    <col min="1" max="1" customWidth="true" style="10" width="17.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="10" width="87.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="10" width="66.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="10" width="16.5703125" collapsed="false"/>
+    <col min="5" max="7" customWidth="true" style="10" width="76.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="10" width="51.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="10" width="50.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="10" width="48.7109375" collapsed="false"/>
+    <col min="11" max="16384" style="5" width="16.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="D4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="D5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="D6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="D7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="D9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="D10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="D11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="D12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="D13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="D14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="D15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="D17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="C18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="D18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" ht="15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" ht="15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" ht="15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" ht="15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" ht="15">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" ht="15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:10" ht="15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
     </row>
     <row r="41" spans="1:10" ht="15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="1:10" ht="15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10" ht="15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:10" ht="15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
     </row>
     <row r="45" spans="1:10" ht="15">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="1:10" ht="15">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10" ht="15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
     </row>
     <row r="48" spans="1:10" ht="15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:10" ht="15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
     </row>
     <row r="51" spans="1:10" ht="15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
     </row>
     <row r="52" spans="1:10" ht="15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="1:10" ht="15">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10" ht="15">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5409,1235 +5504,1266 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="8.28515625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="7.0" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="7.57421875" collapsed="false" bestFit="true"/>
+    <col min="19" max="19" customWidth="true" width="12.28515625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="13.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:41" ht="15.75">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="W1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="X1" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y1" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z1" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA1" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB1" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC1" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD1" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE1" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF1" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG1" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-    </row>
-    <row r="2" spans="1:36">
-      <c r="A2" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="AB1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="30" t="s">
+      <c r="G2" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
+      <c r="Q2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
       <c r="V2">
         <v>1</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="29">
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="23">
         <v>1</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="23">
         <v>840</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="23">
         <v>96145</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="23">
         <v>993579</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="23">
         <v>0</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23">
         <v>100</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="T3" s="29">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="23">
         <v>300</v>
       </c>
-      <c r="U3" s="30"/>
+      <c r="U3" s="23"/>
       <c r="V3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="30" t="s">
+    <row r="4" spans="1:41">
+      <c r="A4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="T4" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="U4" s="29"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4" s="23"/>
       <c r="V4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:41">
+      <c r="A5" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="U5" s="29"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5" s="23"/>
       <c r="V5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:41">
+      <c r="A6" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="U6" s="29"/>
+      <c r="U6" s="23"/>
       <c r="V6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="30" t="s">
+    <row r="7" spans="1:41">
+      <c r="A7" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="E7" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30" t="s">
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30" t="s">
+      <c r="D9" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="E9" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="30" t="s">
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" s="23"/>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30" t="s">
+      <c r="P10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T10" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" s="23"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="U11" s="23"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="T9" s="30" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="U9" s="29"/>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="34" t="s">
+      <c r="F13" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="D21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="T10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="U10" s="29"/>
-    </row>
-    <row r="11" spans="1:36">
-      <c r="A11" s="34" t="s">
+      <c r="M23" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="T11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="U11" s="29"/>
-    </row>
-    <row r="12" spans="1:36">
-      <c r="A12" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-    </row>
-    <row r="13" spans="1:36">
-      <c r="A13" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-    </row>
-    <row r="14" spans="1:36">
-      <c r="A14" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="A15" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-    </row>
-    <row r="17" spans="1:33">
-      <c r="A17" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-    </row>
-    <row r="18" spans="1:33">
-      <c r="A18" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-    </row>
-    <row r="19" spans="1:33">
-      <c r="A19" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="N19" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-    </row>
-    <row r="20" spans="1:33">
-      <c r="A20" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-    </row>
-    <row r="21" spans="1:33">
-      <c r="A21" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-    </row>
-    <row r="22" spans="1:33">
-      <c r="A22" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-    </row>
-    <row r="23" spans="1:33">
-      <c r="A23" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
+      <c r="N23" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
       <c r="W23">
         <v>1</v>
       </c>
@@ -6653,55 +6779,55 @@
       <c r="AA23">
         <v>0</v>
       </c>
-      <c r="AB23" s="39" t="s">
+      <c r="AB23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="AC23" s="39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33">
-      <c r="A24" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="L24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="C24" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="N24" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O24" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
+      <c r="M24" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
       <c r="W24">
         <v>1</v>
       </c>
@@ -6717,11 +6843,11 @@
       <c r="AA24">
         <v>0</v>
       </c>
-      <c r="AB24" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC24" s="39" t="s">
-        <v>184</v>
+      <c r="AB24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>183</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -6737,688 +6863,688 @@
       </c>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
     </row>
     <row r="34" spans="3:21">
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
     </row>
     <row r="35" spans="3:21">
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
     </row>
     <row r="36" spans="3:21">
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
     </row>
     <row r="37" spans="3:21">
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
     </row>
     <row r="38" spans="3:21">
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
     </row>
     <row r="39" spans="3:21">
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
     </row>
     <row r="40" spans="3:21">
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
     </row>
     <row r="41" spans="3:21">
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
     </row>
     <row r="42" spans="3:21">
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
     </row>
     <row r="43" spans="3:21">
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
     </row>
     <row r="44" spans="3:21">
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
     </row>
     <row r="45" spans="3:21">
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
     </row>
     <row r="46" spans="3:21">
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
     </row>
     <row r="47" spans="3:21">
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
     </row>
     <row r="48" spans="3:21">
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
     </row>
     <row r="49" spans="3:21">
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
     </row>
     <row r="50" spans="3:21">
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
     </row>
     <row r="51" spans="3:21">
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
     </row>
     <row r="52" spans="3:21">
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
     </row>
     <row r="53" spans="3:21">
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
     </row>
     <row r="54" spans="3:21">
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
     </row>
     <row r="55" spans="3:21">
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
     </row>
     <row r="56" spans="3:21">
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7428,67 +7554,107 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L16:N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="37" customFormat="1" ht="15.75">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" s="29" customFormat="1" ht="15.75">
+      <c r="A1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>198</v>
+      <c r="C1" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
         <v>193</v>
       </c>
-      <c r="C2">
-        <v>255</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2">
-        <v>95916</v>
       </c>
       <c r="G2">
         <v>993558</v>
       </c>
     </row>
-    <row r="27" spans="8:8">
-      <c r="H27" s="39"/>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3">
+        <v>858</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>95916</v>
+      </c>
+      <c r="G3">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>95916</v>
+      </c>
+      <c r="G4">
+        <v>1167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="210">
   <si>
     <t>Stage</t>
   </si>
@@ -346,9 +346,6 @@
     <t>300</t>
   </si>
   <si>
-    <t>07/06/2023</t>
-  </si>
-  <si>
     <t>TRS_116</t>
   </si>
   <si>
@@ -433,9 +430,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>13/06/2023</t>
-  </si>
-  <si>
     <t>TRS_170</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
     <t>414</t>
   </si>
   <si>
-    <t>15/06/2023</t>
-  </si>
-  <si>
     <t>TRS_173</t>
   </si>
   <si>
@@ -652,7 +643,13 @@
     <t>TellerAc_serial</t>
   </si>
   <si>
-    <t>8568</t>
+    <t>8596</t>
+  </si>
+  <si>
+    <t>8606</t>
+  </si>
+  <si>
+    <t>8653</t>
   </si>
 </sst>
 </file>
@@ -1310,12 +1307,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="false"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1368,12 +1365,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="false"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1424,10 +1421,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="18.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" style="3" width="18.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1468,19 +1465,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="18.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="5" width="23.28515625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="5" width="49.5703125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="5" width="43.7109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="5" width="52.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="5" width="51.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="5" width="36.42578125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="5" width="44.7109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="5" width="43.5703125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="5" width="35.42578125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="5" width="23.5703125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="5" width="29.140625" collapsed="false"/>
-    <col min="13" max="16384" style="5" width="18.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="49.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="43.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="52.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="51.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="44.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="43.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="35.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="29.140625" collapsed="true"/>
+    <col min="13" max="16384" style="5" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="15">
@@ -1515,10 +1512,10 @@
         <v>19</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:1024" ht="18.75">
@@ -1526,7 +1523,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -1540,7 +1537,7 @@
         <v>987</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
@@ -4670,15 +4667,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="10" width="17.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="10" width="87.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="10" width="66.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="10" width="16.5703125" collapsed="false"/>
-    <col min="5" max="7" customWidth="true" style="10" width="76.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="10" width="51.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="10" width="50.5703125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="10" width="48.7109375" collapsed="false"/>
-    <col min="11" max="16384" style="5" width="16.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="10" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="87.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="66.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="16.5703125" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="10" width="76.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="10" width="51.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="10" width="50.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="10" width="48.7109375" collapsed="true"/>
+    <col min="11" max="16384" style="5" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -5507,32 +5504,32 @@
   <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="8.28515625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="7.0" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="7.57421875" collapsed="false" bestFit="true"/>
-    <col min="19" max="19" customWidth="true" width="12.28515625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="10.28515625" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="17.28515625" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="18.28515625" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="13.42578125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.57421875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="13.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75">
@@ -5636,19 +5633,19 @@
         <v>97</v>
       </c>
       <c r="AH1" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK1" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AL1" s="37" t="s">
         <v>206</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK1" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>209</v>
       </c>
       <c r="AM1" s="37"/>
       <c r="AN1" s="37"/>
@@ -5695,9 +5692,7 @@
         <v>107</v>
       </c>
       <c r="R2" s="23"/>
-      <c r="S2" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="S2" s="23"/>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
       <c r="V2">
@@ -5706,13 +5701,13 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="D3" s="23">
         <v>1</v>
@@ -5743,9 +5738,7 @@
       </c>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
-      <c r="S3" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="S3" s="23"/>
       <c r="T3" s="23">
         <v>300</v>
       </c>
@@ -5756,13 +5749,13 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>113</v>
-      </c>
       <c r="C4" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>101</v>
@@ -5786,16 +5779,14 @@
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
       <c r="O4" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
-      <c r="S4" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="S4" s="23"/>
       <c r="T4" s="23" t="s">
         <v>107</v>
       </c>
@@ -5806,13 +5797,13 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>116</v>
-      </c>
       <c r="C5" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>101</v>
@@ -5836,16 +5827,14 @@
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
-      <c r="S5" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="S5" s="23"/>
       <c r="T5" s="23" t="s">
         <v>107</v>
       </c>
@@ -5856,13 +5845,13 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>119</v>
-      </c>
       <c r="C6" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>101</v>
@@ -5886,16 +5875,14 @@
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P6" s="23" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="S6" s="23"/>
       <c r="T6" s="23" t="s">
         <v>107</v>
       </c>
@@ -5906,13 +5893,13 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>101</v>
@@ -5937,10 +5924,10 @@
         <v>102</v>
       </c>
       <c r="L7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="N7" s="23" t="s">
         <v>105</v>
@@ -5952,24 +5939,20 @@
         <v>6</v>
       </c>
       <c r="Q7" s="23"/>
-      <c r="R7" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>126</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>127</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>101</v>
@@ -6000,21 +5983,19 @@
       </c>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
-      <c r="S8" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="S8" s="23"/>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="C9" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>101</v>
@@ -6023,10 +6004,10 @@
         <v>102</v>
       </c>
       <c r="F9" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>131</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>105</v>
@@ -6038,16 +6019,14 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P9" s="23" t="s">
         <v>6</v>
       </c>
       <c r="Q9" s="23"/>
       <c r="R9" s="23"/>
-      <c r="S9" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="S9" s="23"/>
       <c r="T9" s="23" t="s">
         <v>107</v>
       </c>
@@ -6055,13 +6034,13 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>133</v>
-      </c>
       <c r="C10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>101</v>
@@ -6070,10 +6049,10 @@
         <v>102</v>
       </c>
       <c r="F10" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>131</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>105</v>
@@ -6085,16 +6064,14 @@
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
-      <c r="S10" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="S10" s="23"/>
       <c r="T10" s="23" t="s">
         <v>107</v>
       </c>
@@ -6102,13 +6079,13 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>135</v>
-      </c>
       <c r="C11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>101</v>
@@ -6117,10 +6094,10 @@
         <v>102</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>131</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>105</v>
@@ -6132,16 +6109,14 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P11" s="23" t="s">
         <v>6</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
-      <c r="S11" s="23" t="s">
-        <v>137</v>
-      </c>
+      <c r="S11" s="23"/>
       <c r="T11" s="23" t="s">
         <v>107</v>
       </c>
@@ -6149,13 +6124,13 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>138</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>140</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>101</v>
@@ -6164,10 +6139,10 @@
         <v>102</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>105</v>
@@ -6180,10 +6155,10 @@
         <v>102</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>105</v>
@@ -6194,21 +6169,19 @@
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
-      <c r="S12" s="23" t="s">
-        <v>137</v>
-      </c>
+      <c r="S12" s="23"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>145</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>147</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>101</v>
@@ -6217,10 +6190,10 @@
         <v>102</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>105</v>
@@ -6247,21 +6220,19 @@
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
-      <c r="S13" s="23" t="s">
-        <v>137</v>
-      </c>
+      <c r="S13" s="23"/>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>145</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>147</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>101</v>
@@ -6286,10 +6257,10 @@
         <v>102</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>105</v>
@@ -6300,51 +6271,49 @@
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
-      <c r="S14" s="23" t="s">
-        <v>137</v>
-      </c>
+      <c r="S14" s="23"/>
       <c r="T14" s="23"/>
       <c r="U14" s="23"/>
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>151</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>152</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>154</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>105</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>101</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>105</v>
@@ -6354,52 +6323,52 @@
       </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23" t="s">
-        <v>137</v>
-      </c>
+      <c r="R15" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="S15" s="23"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>157</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E16" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>159</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>105</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>101</v>
       </c>
       <c r="K16" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>159</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>105</v>
@@ -6410,21 +6379,19 @@
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
-      <c r="S16" s="23" t="s">
-        <v>137</v>
-      </c>
+      <c r="S16" s="23"/>
       <c r="T16" s="23"/>
       <c r="U16" s="23"/>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>160</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>162</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>101</v>
@@ -6433,10 +6400,10 @@
         <v>102</v>
       </c>
       <c r="F17" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>105</v>
@@ -6449,10 +6416,10 @@
         <v>102</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>105</v>
@@ -6463,21 +6430,19 @@
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
-      <c r="S17" s="23" t="s">
-        <v>163</v>
-      </c>
+      <c r="S17" s="23"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>101</v>
@@ -6486,10 +6451,10 @@
         <v>102</v>
       </c>
       <c r="F18" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>105</v>
@@ -6502,10 +6467,10 @@
         <v>102</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>105</v>
@@ -6516,21 +6481,19 @@
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
-      <c r="S18" s="23" t="s">
-        <v>163</v>
-      </c>
+      <c r="S18" s="23"/>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>101</v>
@@ -6539,10 +6502,10 @@
         <v>102</v>
       </c>
       <c r="F19" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>105</v>
@@ -6555,10 +6518,10 @@
         <v>102</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>105</v>
@@ -6569,21 +6532,19 @@
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="23" t="s">
-        <v>163</v>
-      </c>
+      <c r="S19" s="23"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>101</v>
@@ -6592,10 +6553,10 @@
         <v>102</v>
       </c>
       <c r="F20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="23" t="s">
         <v>105</v>
@@ -6608,10 +6569,10 @@
         <v>102</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>105</v>
@@ -6622,33 +6583,31 @@
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="23" t="s">
-        <v>163</v>
-      </c>
+      <c r="S20" s="23"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E21" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>152</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>154</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>105</v>
@@ -6663,10 +6622,10 @@
         <v>102</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>105</v>
@@ -6683,25 +6642,25 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E22" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>159</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>105</v>
@@ -6726,13 +6685,13 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -6740,7 +6699,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J23" s="23" t="s">
         <v>101</v>
@@ -6749,10 +6708,10 @@
         <v>102</v>
       </c>
       <c r="L23" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>105</v>
@@ -6780,21 +6739,21 @@
         <v>0</v>
       </c>
       <c r="AB23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AC23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -6808,13 +6767,13 @@
         <v>101</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>105</v>
@@ -6844,10 +6803,10 @@
         <v>0</v>
       </c>
       <c r="AB24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AC24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -7562,9 +7521,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="29" customFormat="1" ht="15.75">
@@ -7575,33 +7534,33 @@
         <v>11</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2">
         <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -7612,16 +7571,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3">
         <v>858</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -7635,16 +7594,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C4">
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>

--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="207">
   <si>
     <t>Stage</t>
   </si>
@@ -641,15 +641,6 @@
   </si>
   <si>
     <t>TellerAc_serial</t>
-  </si>
-  <si>
-    <t>8596</t>
-  </si>
-  <si>
-    <t>8606</t>
-  </si>
-  <si>
-    <t>8653</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1282,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1307,12 +1298,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="43.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1365,12 +1356,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="true"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1421,10 +1412,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="18.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.28515625" style="3"/>
+    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1465,19 +1456,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="23.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="49.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="43.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="52.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="51.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="36.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="44.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="5" width="43.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="35.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="5" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="5" width="29.140625" collapsed="true"/>
-    <col min="13" max="16384" style="5" width="18.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="51" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="18.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="15">
@@ -4667,15 +4658,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="10" width="17.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="87.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="10" width="66.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="10" width="16.5703125" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" style="10" width="76.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="10" width="51.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="10" width="50.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="10" width="48.7109375" collapsed="true"/>
-    <col min="11" max="16384" style="5" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="87" style="10" customWidth="1"/>
+    <col min="3" max="3" width="66" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="10" customWidth="1"/>
+    <col min="5" max="7" width="76.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="51" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="48.7109375" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="16.28515625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -5503,33 +5494,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.57421875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" customWidth="1"/>
+    <col min="35" max="35" width="18.28515625" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75">
@@ -6323,9 +6314,7 @@
       </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
-      <c r="R15" s="23" t="s">
-        <v>209</v>
-      </c>
+      <c r="R15" s="23"/>
       <c r="S15" s="23"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
@@ -6716,7 +6705,9 @@
       <c r="N23" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="O23" s="23"/>
+      <c r="O23" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
@@ -7521,9 +7512,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="29" customFormat="1" ht="15.75">

--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ChargeWaiverExecutionTracker" sheetId="5" r:id="rId5"/>
     <sheet name="CSM_TRANSACTIONS" sheetId="6" r:id="rId6"/>
     <sheet name="CSM_TRANSACTIONONSTAFFACC" sheetId="7" r:id="rId7"/>
+    <sheet name="CSM_TransferAccount" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="209">
   <si>
     <t>Stage</t>
   </si>
@@ -641,6 +642,12 @@
   </si>
   <si>
     <t>TellerAc_serial</t>
+  </si>
+  <si>
+    <t>TA_059</t>
+  </si>
+  <si>
+    <t>TA_059_D1</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1289,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5494,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7507,7 +7514,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7610,4 +7617,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="224">
   <si>
     <t>Stage</t>
   </si>
@@ -648,6 +648,51 @@
   </si>
   <si>
     <t>TA_059_D1</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>DestinationBranch</t>
+  </si>
+  <si>
+    <t>BranchCodeFA</t>
+  </si>
+  <si>
+    <t>CYCodeFA</t>
+  </si>
+  <si>
+    <t>GLCodeFA</t>
+  </si>
+  <si>
+    <t>CIFCodeFA</t>
+  </si>
+  <si>
+    <t>SLCodeFA</t>
+  </si>
+  <si>
+    <t>BranchCodeTA</t>
+  </si>
+  <si>
+    <t>CYCodeTA</t>
+  </si>
+  <si>
+    <t>GLCodeTA</t>
+  </si>
+  <si>
+    <t>CIFCodeTA</t>
+  </si>
+  <si>
+    <t>SLCodeTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>KARTHIK</t>
+  </si>
+  <si>
+    <t>8798</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1334,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1299,18 +1344,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="false"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1335,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -1363,12 +1408,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="false"/>
+    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1419,10 +1464,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="3"/>
-    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="18.28515625" style="3"/>
+    <col min="1" max="1" style="3" width="18.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="false"/>
+    <col min="4" max="16384" style="3" width="18.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1463,19 +1508,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="51" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="18.140625" style="5"/>
+    <col min="1" max="1" customWidth="true" style="5" width="18.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="5" width="23.28515625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="5" width="49.5703125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="43.7109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="5" width="52.7109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="5" width="51.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="5" width="36.42578125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="5" width="44.7109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="5" width="43.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="5" width="35.42578125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="5" width="23.5703125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="5" width="29.140625" collapsed="false"/>
+    <col min="13" max="16384" style="5" width="18.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="15">
@@ -4665,15 +4710,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="87" style="10" customWidth="1"/>
-    <col min="3" max="3" width="66" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="10" customWidth="1"/>
-    <col min="5" max="7" width="76.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="51" style="10" customWidth="1"/>
-    <col min="9" max="9" width="50.5703125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="48.7109375" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="16.28515625" style="5"/>
+    <col min="1" max="1" customWidth="true" style="10" width="17.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="10" width="87.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="10" width="66.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="10" width="16.5703125" collapsed="false"/>
+    <col min="5" max="7" customWidth="true" style="10" width="76.140625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="10" width="51.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="10" width="50.5703125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="10" width="48.7109375" collapsed="false"/>
+    <col min="11" max="16384" style="5" width="16.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -5502,32 +5547,32 @@
   <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" customWidth="1"/>
-    <col min="35" max="35" width="18.28515625" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="8.28515625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="7.0" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="11.85546875" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="9.5703125" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="12.28515625" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="34" max="34" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="35" max="35" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="36" max="36" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="13.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75">
@@ -7519,9 +7564,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="29" customFormat="1" ht="15.75">
@@ -7621,20 +7666,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" width="10.5703125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="16.28515625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="13.5703125" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.5703125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="10.7109375" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="13.85546875" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="10.42578125" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="10.140625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="22" max="22" width="7.57421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:22" ht="15.75">
       <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
@@ -7644,13 +7706,135 @@
       <c r="C1" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>208</v>
+      </c>
+      <c r="C2">
+        <v>121</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>840</v>
+      </c>
+      <c r="F2">
+        <v>100100</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>840</v>
+      </c>
+      <c r="N2">
+        <v>100100</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>840</v>
+      </c>
+      <c r="S2">
+        <v>100100</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="U12" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/CSM_RAZIA3/TestData/CSMTestData.xlsx
+++ b/CSM_RAZIA3/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="225">
   <si>
     <t>Stage</t>
   </si>
@@ -692,7 +692,10 @@
     <t>KARTHIK</t>
   </si>
   <si>
-    <t>8798</t>
+    <t>TA_058_D1</t>
+  </si>
+  <si>
+    <t>TA_058</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1344,18 +1347,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="43.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="52.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="34.85546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="41.0" collapsed="false"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" width="43.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1408,12 +1411,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="35.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="43.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="41.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="53.140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="66.7109375" collapsed="false"/>
-    <col min="6" max="16384" style="3" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" width="35.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1464,10 +1467,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="18.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="64.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="57.0" collapsed="false"/>
-    <col min="4" max="16384" style="3" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" width="18.28515625" style="3"/>
+    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="18.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1508,19 +1511,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="18.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="5" width="23.28515625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="5" width="49.5703125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="5" width="43.7109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="5" width="52.7109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="5" width="51.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="5" width="36.42578125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="5" width="44.7109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="5" width="43.5703125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="5" width="35.42578125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="5" width="23.5703125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="5" width="29.140625" collapsed="false"/>
-    <col min="13" max="16384" style="5" width="18.140625" collapsed="false"/>
+    <col min="1" max="1" width="18.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="51" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="18.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="15">
@@ -4710,15 +4713,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="10" width="17.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="10" width="87.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="10" width="66.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="10" width="16.5703125" collapsed="false"/>
-    <col min="5" max="7" customWidth="true" style="10" width="76.140625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="10" width="51.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="10" width="50.5703125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="10" width="48.7109375" collapsed="false"/>
-    <col min="11" max="16384" style="5" width="16.28515625" collapsed="false"/>
+    <col min="1" max="1" width="17.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="87" style="10" customWidth="1"/>
+    <col min="3" max="3" width="66" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="10" customWidth="1"/>
+    <col min="5" max="7" width="76.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="51" style="10" customWidth="1"/>
+    <col min="9" max="9" width="50.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="48.7109375" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="16.28515625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -5552,27 +5555,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="8.28515625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="7.0" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="11.85546875" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="9.5703125" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="12.28515625" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="10.28515625" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="17.28515625" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="34" max="34" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="35" max="35" customWidth="true" width="18.28515625" collapsed="false"/>
-    <col min="36" max="36" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="13.42578125" collapsed="false"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" customWidth="1"/>
+    <col min="35" max="35" width="18.28515625" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75">
@@ -7564,9 +7567,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="false"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="29" customFormat="1" ht="15.75">
@@ -7668,32 +7671,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="7" max="8" customWidth="true" width="10.5703125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="16.28515625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="13.5703125" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.5703125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.140625" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="10.7109375" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="13.85546875" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="10.28515625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="10.42578125" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" width="10.140625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="22" max="22" width="7.57421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75">
@@ -7828,8 +7830,70 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
         <v>223</v>
+      </c>
+      <c r="C3">
+        <v>452</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>840</v>
+      </c>
+      <c r="F3">
+        <v>2589</v>
+      </c>
+      <c r="G3">
+        <v>993695</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>840</v>
+      </c>
+      <c r="N3">
+        <v>2589</v>
+      </c>
+      <c r="O3">
+        <v>993695</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>84</v>
+      </c>
+      <c r="S3">
+        <v>2589</v>
+      </c>
+      <c r="T3">
+        <v>993695</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22">
